--- a/Ascensor/Resultados.xlsx
+++ b/Ascensor/Resultados.xlsx
@@ -498,25 +498,25 @@
         <v>38.98</v>
       </c>
       <c r="D2" t="n">
-        <v>4.17</v>
+        <v>3.61</v>
       </c>
       <c r="E2" t="n">
-        <v>4.39</v>
+        <v>3.79</v>
       </c>
       <c r="F2" t="n">
-        <v>2835</v>
+        <v>2362.5</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>170.33625</v>
+        <v>67.52813</v>
       </c>
       <c r="J2" t="n">
-        <v>0.18926</v>
+        <v>75.03</v>
       </c>
     </row>
     <row r="3">
@@ -532,25 +532,25 @@
         <v>38.76</v>
       </c>
       <c r="D3" t="n">
-        <v>3.53</v>
+        <v>3.08</v>
       </c>
       <c r="E3" t="n">
-        <v>3.71</v>
+        <v>3.25</v>
       </c>
       <c r="F3" t="n">
-        <v>2295</v>
+        <v>1912.5</v>
       </c>
       <c r="G3" t="n">
-        <v>57.14</v>
+        <v>66.67</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>157.58212</v>
+        <v>62.47812</v>
       </c>
       <c r="J3" t="n">
-        <v>0.17509</v>
+        <v>69.42</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.43</v>
+        <v>13.25</v>
       </c>
       <c r="C4" t="n">
-        <v>39.41</v>
+        <v>38.92</v>
       </c>
       <c r="D4" t="n">
-        <v>3.37</v>
+        <v>2.93</v>
       </c>
       <c r="E4" t="n">
-        <v>3.55</v>
+        <v>3.09</v>
       </c>
       <c r="F4" t="n">
-        <v>2160</v>
+        <v>1800</v>
       </c>
       <c r="G4" t="n">
-        <v>64.29000000000001</v>
+        <v>75</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>166.87112</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.18541</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="5">
@@ -600,25 +600,25 @@
         <v>38.6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.33</v>
+        <v>3.74</v>
       </c>
       <c r="E5" t="n">
-        <v>4.56</v>
+        <v>3.93</v>
       </c>
       <c r="F5" t="n">
-        <v>2970</v>
+        <v>2475</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>254.925</v>
+        <v>101.06452</v>
       </c>
       <c r="J5" t="n">
-        <v>0.28325</v>
+        <v>112.29</v>
       </c>
     </row>
   </sheetData>
